--- a/health_parent/health_backend/src/main/webapp/template/ordersetting_template.xlsx
+++ b/health_parent/health_backend/src/main/webapp/template/ordersetting_template.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0314521D-6A62-4E33-96CB-02F4D58AA074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="5064" yWindow="1068" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="预约设置模板" sheetId="1" r:id="rId1"/>
@@ -27,8 +28,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,7 +98,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -107,17 +108,28 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -159,7 +171,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -191,9 +203,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -225,6 +255,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -400,25 +448,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>44882</v>
+      </c>
+      <c r="B2" s="1">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
